--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlaki\Desktop\Binary Tomography\BinaryTomoSSIP2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4DAE27-3C66-42C0-BD88-BD2549E14338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A58C0C6-6951-4A05-AF30-108206222B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -117,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -132,6 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +432,7 @@
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -438,7 +447,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,8 +481,12 @@
       <c r="K2" s="3">
         <v>5.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2" s="8">
+        <f>MEDIAN(B2:K2)</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -507,8 +520,12 @@
       <c r="K3" s="3">
         <v>0.1454</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:M16" si="0">MEDIAN(B3:K3)</f>
+        <v>0.16465000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -542,8 +559,18 @@
       <c r="K4" s="3">
         <v>3.0600000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" s="8">
+        <f t="shared" si="0"/>
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -557,8 +584,9 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,8 +620,12 @@
       <c r="K8" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8" s="8">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -627,8 +659,12 @@
       <c r="K9" s="3">
         <v>2.98E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.9400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -662,11 +698,19 @@
       <c r="K10" s="3">
         <v>2.8E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F11" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -680,8 +724,9 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,8 +760,12 @@
       <c r="K14" s="3">
         <v>9.7999999999999997E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M14" s="8">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -750,8 +799,12 @@
       <c r="K15" s="3">
         <v>0.1613</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -784,6 +837,10 @@
       </c>
       <c r="K16" s="3">
         <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1499999999999998E-2</v>
       </c>
     </row>
   </sheetData>
